--- a/reports/empleados.xlsx
+++ b/reports/empleados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Luis</t>
-  </si>
-  <si>
-    <t>chucho</t>
-  </si>
-  <si>
-    <t>Jefe de Proyecto</t>
   </si>
   <si>
     <t>Juaan</t>
@@ -110,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -216,7 +210,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>14</v>
@@ -225,35 +219,21 @@
         <v>5</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>5</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
